--- a/Ellipsometer Data Collection and Modeling.xlsx
+++ b/Ellipsometer Data Collection and Modeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48318DF-6F6F-4873-9A19-8F1CD1E1A57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2038CC9-E4D2-4AC3-8331-B45C246915DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="2610" windowWidth="20025" windowHeight="11385" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="1725" windowWidth="25995" windowHeight="13200" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Intensity</t>
   </si>
@@ -191,9 +191,6 @@
     <t>AoI [°]</t>
   </si>
   <si>
-    <t>Analyzer α2 [°]</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -201,34 +198,6 @@
   </si>
   <si>
     <t>P (Model)</t>
-  </si>
-  <si>
-    <r>
-      <t>Incidence (AoI)[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
   </si>
   <si>
     <t>INPUT</t>
@@ -408,9 +377,6 @@
     <t>d1 [Angs]</t>
   </si>
   <si>
-    <t>Polarizer azimuth angle (α1) [°]</t>
-  </si>
-  <si>
     <t>Extinction Coefficient
 (k1) Solver Range</t>
   </si>
@@ -468,6 +434,39 @@
   <si>
     <t xml:space="preserve">Sum of Normalized Squared Errors </t>
   </si>
+  <si>
+    <t>Polarizer azimuth angle (α1) [deg]</t>
+  </si>
+  <si>
+    <t>Analyzer α2 [deg]</t>
+  </si>
+  <si>
+    <t>Incidence (AoI)[deg]</t>
+  </si>
+  <si>
+    <r>
+      <t>Ψ (Exp) [deg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Δ (Exp) [deg]</t>
+  </si>
+  <si>
+    <t>Ψ (Model) [deg]</t>
+  </si>
+  <si>
+    <t>Δ (Model) [deg]</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +478,7 @@
     <numFmt numFmtId="166" formatCode="0.00000000000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,15 +534,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1087,7 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1103,7 +1093,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,10 +1108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1179,44 +1169,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1250,123 +1240,123 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,19 +1365,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,105 +1398,105 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1522,10 +1512,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1639,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1661,16 +1651,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,22 +1687,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,10 +1735,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,10 +1747,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1829,46 +1819,46 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,8 +1914,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Model vs. Experimental Parameters</a:t>
+              <a:rPr lang="en-US" b="1" u="sng"/>
+              <a:t>Model &amp; Experimental Parameters</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3582,7 +3572,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1" u="sng"/>
               <a:t>Model &amp; Experimental Parameters</a:t>
             </a:r>
           </a:p>
@@ -3623,7 +3613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$A$23:$A$34</c:f>
+              <c:f>'Exp. Data Processing'!$A$21:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3668,7 +3658,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$B$23:$B$34</c:f>
+              <c:f>'Exp. Data Processing'!$B$21:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4320,7 +4310,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$A$23:$A$34</c:f>
+              <c:f>'Exp. Data Processing'!$A$21:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4365,7 +4355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$C$23:$C$34</c:f>
+              <c:f>'Exp. Data Processing'!$C$21:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5252,14 +5242,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1" u="sng"/>
               <a:t>Parameter</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" u="sng" baseline="0"/>
               <a:t> Error %</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5286,7 +5276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exp. Data Processing'!$H$22</c:f>
+              <c:f>'Exp. Data Processing'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5307,7 +5297,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$A$23:$A$34</c:f>
+              <c:f>'Exp. Data Processing'!$A$21:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5352,7 +5342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$H$23:$H$34</c:f>
+              <c:f>'Exp. Data Processing'!$H$21:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5407,7 +5397,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exp. Data Processing'!$I$22</c:f>
+              <c:f>'Exp. Data Processing'!$I$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5428,7 +5418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$A$23:$A$34</c:f>
+              <c:f>'Exp. Data Processing'!$A$21:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5473,7 +5463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exp. Data Processing'!$I$23:$I$34</c:f>
+              <c:f>'Exp. Data Processing'!$I$21:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7107,7 +7097,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7934324" cy="7010400"/>
+    <xdr:ext cx="7934324" cy="3857625"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -7122,7 +7112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7934324" cy="7010400"/>
+          <a:ext cx="7934324" cy="3857625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7209,7 +7199,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The regressive fitting process requires Excel's Solver add-on be enabled in the settings. It also requires that one knows the complex indicies of refraction for the sample ambient phase (likely air) and the substrate that the film is on. If the default solver settings are not automatically present they can be loaded using the "Default Solver Settings" cells below the parameter calculator table.</a:t>
+            <a:t>The regressive fitting process requires Excel's Solver add-on be enabled in the settings. It also requires that one knows the complex indicies of refraction for the sample ambient phase (likely air) and the substrate for the thin film. If the default solver settings are not automatically present they can be loaded using the "Default Solver Settings" cells below the parameter calculator table.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7218,7 +7208,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Regressive fitting involves varying the model ellipsometric parameters as a function of film refractive index and thickness. These values are varied until the average sum of normalized squared errors between model and experimental parameters is minimized. Solver ranges for the film refractive index (n1), coefficient of extinction (k1), and thickness (d1) can be used to decrease solving time and increase accuracy. Setting the "min" and "max" cells to the same value is equivalent to telling the solver that a parameter is known. This is particularly useful for the coefficient of extinction (k1) because it is typically considered or assumed nonexistent (k1 = 0) for many films of interest</a:t>
+            <a:t>Regressive fitting involves varying the model ellipsometric parameters as a function of film refractive index and thickness. These values are varied until the average sum of normalized squared errors between model and experimental parameters is minimized. Solver ranges for the film refractive index (n1), coefficient of extinction (k1), and thickness (d1) can be used to decrease solving time and increase accuracy. Setting the "min" and "max" cells to the same value is equivalent to telling the solver that a parameter is known. This is particularly useful for the coefficient of extinction (k1) because it is typically considered or assumed to be nonexistent (k1 = 0) for many films of interest</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7227,16 +7217,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469294</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>140303</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>102635</xdr:rowOff>
+      <xdr:rowOff>169310</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7251,15 +7241,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7924799" y="1019176"/>
-          <a:ext cx="3657600" cy="1607584"/>
-          <a:chOff x="7324724" y="1"/>
-          <a:chExt cx="3657600" cy="1607584"/>
+          <a:off x="8394094" y="1085851"/>
+          <a:ext cx="2719009" cy="1607584"/>
+          <a:chOff x="7794010" y="1"/>
+          <a:chExt cx="2719030" cy="1607584"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="Image result for Rotating analyzer ellipsometer">
+          <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8D0CDC-AA7F-46B3-A769-4F07359DAAAD}"/>
@@ -7271,7 +7261,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7279,14 +7269,12 @@
             </a:extLst>
           </a:blip>
           <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
+          <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="7324724" y="1"/>
-            <a:ext cx="3657600" cy="1313234"/>
+            <a:off x="7794010" y="1"/>
+            <a:ext cx="2719030" cy="1313234"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7364,8 +7352,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7385,7 +7373,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11610974" y="0"/>
+              <a:off x="11048999" y="0"/>
               <a:ext cx="1809751" cy="1238250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7620,7 +7608,7 @@
                               <m:rPr>
                                 <m:sty m:val="p"/>
                               </m:rPr>
-                              <a:rPr lang="en-US" sz="1100">
+                              <a:rPr lang="el-GR" sz="1100" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
@@ -7629,7 +7617,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>ψ</m:t>
+                              <m:t>Ψ</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -7665,7 +7653,7 @@
                       </m:e>
                       <m:sup>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -7674,7 +7662,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑗</m:t>
+                          <m:t>𝑖</m:t>
                         </m:r>
                         <m:r>
                           <m:rPr>
@@ -7739,7 +7727,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11610974" y="0"/>
+              <a:off x="11048999" y="0"/>
               <a:ext cx="1809751" cy="1238250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7780,7 +7768,55 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝛲=𝛲_π/𝛲_σ =tan⁡(ψ) 𝑒^𝑗Δ</a:t>
+                <a:t>𝛲=𝛲_π/𝛲_σ =tan⁡(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ψ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) 𝑒^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Δ</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
                 <a:solidFill>
@@ -7816,16 +7852,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89744</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>416234</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>526516</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7386</xdr:rowOff>
+      <xdr:rowOff>74061</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7840,10 +7876,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7915275" y="2733676"/>
-          <a:ext cx="4083359" cy="1893335"/>
-          <a:chOff x="7915275" y="1714501"/>
-          <a:chExt cx="4083359" cy="1893335"/>
+          <a:off x="8014544" y="2800351"/>
+          <a:ext cx="3484772" cy="1893335"/>
+          <a:chOff x="8214561" y="1714501"/>
+          <a:chExt cx="3484789" cy="1893335"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -7867,14 +7903,13 @@
               </a:ext>
             </a:extLst>
           </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
+          <a:srcRect/>
+          <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7915275" y="1714501"/>
-            <a:ext cx="4083359" cy="1581150"/>
+            <a:off x="8214561" y="1714501"/>
+            <a:ext cx="3484789" cy="1581150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7935,125 +7970,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>591049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>150261</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF2D152-0100-424D-A1E4-3FCEB7E2688E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12172951" y="1190625"/>
-          <a:ext cx="3658098" cy="3007761"/>
-          <a:chOff x="12172951" y="1190625"/>
-          <a:chExt cx="3658098" cy="3007761"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9132466-DC9B-47B7-A39F-55AB543F30F0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:srcRect b="7868"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12172951" y="1190625"/>
-            <a:ext cx="3658098" cy="2676526"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02998E1D-33E8-4933-BDEF-A8442BBB69AD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13039726" y="3933826"/>
-            <a:ext cx="1924050" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-              <a:t>Experimental</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
-              <a:t> Data Processing</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8062,11 +7978,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95247</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165464</xdr:rowOff>
+      <xdr:colOff>23809</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18911</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3095627" cy="809517"/>
+    <xdr:ext cx="3567796" cy="572849"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -8082,28 +7998,28 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="5924547" y="4794614"/>
-              <a:ext cx="3095627" cy="809517"/>
+              <a:off x="6016622" y="4836974"/>
+              <a:ext cx="3567796" cy="572849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="dk1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -8139,7 +8055,7 @@
                       <m:rPr>
                         <m:sty m:val="p"/>
                       </m:rPr>
-                      <a:rPr lang="en-US" sz="1100" i="0">
+                      <a:rPr lang="el-GR" sz="1100" i="1">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -8148,7 +8064,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>ψ</m:t>
+                      <m:t>Ψ</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" i="0">
@@ -8190,7 +8106,37 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>atan</m:t>
+                          <m:t>a</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>rc</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>tan</m:t>
                         </m:r>
                       </m:fName>
                       <m:e>
@@ -8425,7 +8371,37 @@
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
-                                                  <m:t>acos</m:t>
+                                                  <m:t>a</m:t>
+                                                </m:r>
+                                                <m:r>
+                                                  <m:rPr>
+                                                    <m:sty m:val="p"/>
+                                                  </m:rPr>
+                                                  <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                                    <a:solidFill>
+                                                      <a:schemeClr val="tx1"/>
+                                                    </a:solidFill>
+                                                    <a:effectLst/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                    <a:ea typeface="+mn-ea"/>
+                                                    <a:cs typeface="+mn-cs"/>
+                                                  </a:rPr>
+                                                  <m:t>rc</m:t>
+                                                </m:r>
+                                                <m:r>
+                                                  <m:rPr>
+                                                    <m:sty m:val="p"/>
+                                                  </m:rPr>
+                                                  <a:rPr lang="en-US" sz="1100" i="0">
+                                                    <a:solidFill>
+                                                      <a:schemeClr val="tx1"/>
+                                                    </a:solidFill>
+                                                    <a:effectLst/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                    <a:ea typeface="+mn-ea"/>
+                                                    <a:cs typeface="+mn-cs"/>
+                                                  </a:rPr>
+                                                  <m:t>cos</m:t>
                                                 </m:r>
                                               </m:fName>
                                               <m:e>
@@ -8459,69 +8435,54 @@
                                                         </m:ctrlPr>
                                                       </m:fPr>
                                                       <m:num>
-                                                        <m:sSub>
-                                                          <m:sSubPr>
-                                                            <m:ctrlPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                            </m:ctrlPr>
-                                                          </m:sSubPr>
-                                                          <m:e>
-                                                            <m:r>
-                                                              <m:rPr>
-                                                                <m:sty m:val="p"/>
-                                                              </m:rPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                              <m:t>I</m:t>
-                                                            </m:r>
-                                                          </m:e>
-                                                          <m:sub>
-                                                            <m:d>
-                                                              <m:dPr>
-                                                                <m:ctrlPr>
-                                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                </m:ctrlPr>
-                                                              </m:dPr>
-                                                              <m:e>
-                                                                <m:r>
-                                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                  <m:t>90°</m:t>
-                                                                </m:r>
-                                                              </m:e>
-                                                            </m:d>
-                                                          </m:sub>
-                                                        </m:sSub>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>𝐼</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>(90</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>°</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>)</m:t>
+                                                        </m:r>
                                                         <m:r>
                                                           <a:rPr lang="en-US" sz="1100" i="0">
                                                             <a:solidFill>
@@ -8534,136 +8495,8 @@
                                                           </a:rPr>
                                                           <m:t>−</m:t>
                                                         </m:r>
-                                                        <m:sSub>
-                                                          <m:sSubPr>
-                                                            <m:ctrlPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                            </m:ctrlPr>
-                                                          </m:sSubPr>
-                                                          <m:e>
-                                                            <m:r>
-                                                              <m:rPr>
-                                                                <m:sty m:val="p"/>
-                                                              </m:rPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                              <m:t>I</m:t>
-                                                            </m:r>
-                                                          </m:e>
-                                                          <m:sub>
-                                                            <m:d>
-                                                              <m:dPr>
-                                                                <m:ctrlPr>
-                                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                </m:ctrlPr>
-                                                              </m:dPr>
-                                                              <m:e>
-                                                                <m:r>
-                                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                  <m:t>0°</m:t>
-                                                                </m:r>
-                                                              </m:e>
-                                                            </m:d>
-                                                          </m:sub>
-                                                        </m:sSub>
-                                                      </m:num>
-                                                      <m:den>
-                                                        <m:sSub>
-                                                          <m:sSubPr>
-                                                            <m:ctrlPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                            </m:ctrlPr>
-                                                          </m:sSubPr>
-                                                          <m:e>
-                                                            <m:r>
-                                                              <m:rPr>
-                                                                <m:sty m:val="p"/>
-                                                              </m:rPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                                <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
-                                                                </a:solidFill>
-                                                                <a:effectLst/>
-                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                <a:ea typeface="+mn-ea"/>
-                                                                <a:cs typeface="+mn-cs"/>
-                                                              </a:rPr>
-                                                              <m:t>I</m:t>
-                                                            </m:r>
-                                                          </m:e>
-                                                          <m:sub>
-                                                            <m:d>
-                                                              <m:dPr>
-                                                                <m:ctrlPr>
-                                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                </m:ctrlPr>
-                                                              </m:dPr>
-                                                              <m:e>
-                                                                <m:r>
-                                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                  <m:t>90°</m:t>
-                                                                </m:r>
-                                                              </m:e>
-                                                            </m:d>
-                                                          </m:sub>
-                                                        </m:sSub>
                                                         <m:r>
-                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
                                                             <a:solidFill>
                                                               <a:schemeClr val="tx1"/>
                                                             </a:solidFill>
@@ -8672,14 +8505,64 @@
                                                             <a:ea typeface="+mn-ea"/>
                                                             <a:cs typeface="+mn-cs"/>
                                                           </a:rPr>
-                                                          <m:t>+</m:t>
+                                                          <m:t>𝐼</m:t>
                                                         </m:r>
-                                                        <m:sSub>
-                                                          <m:sSubPr>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>(0</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>°</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>)</m:t>
+                                                        </m:r>
+                                                      </m:num>
+                                                      <m:den>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>𝐼</m:t>
+                                                        </m:r>
+                                                        <m:d>
+                                                          <m:dPr>
                                                             <m:ctrlPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="1">
+                                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                                                 <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
+                                                                  <a:schemeClr val="dk1"/>
                                                                 </a:solidFill>
                                                                 <a:effectLst/>
                                                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -8687,56 +8570,94 @@
                                                                 <a:cs typeface="+mn-cs"/>
                                                               </a:rPr>
                                                             </m:ctrlPr>
-                                                          </m:sSubPr>
+                                                          </m:dPr>
                                                           <m:e>
                                                             <m:r>
-                                                              <m:rPr>
-                                                                <m:sty m:val="p"/>
-                                                              </m:rPr>
-                                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                                                 <a:solidFill>
-                                                                  <a:schemeClr val="tx1"/>
+                                                                  <a:schemeClr val="dk1"/>
                                                                 </a:solidFill>
                                                                 <a:effectLst/>
                                                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                                 <a:ea typeface="+mn-ea"/>
                                                                 <a:cs typeface="+mn-cs"/>
                                                               </a:rPr>
-                                                              <m:t>I</m:t>
+                                                              <m:t>90</m:t>
+                                                            </m:r>
+                                                            <m:r>
+                                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                                <a:solidFill>
+                                                                  <a:schemeClr val="dk1"/>
+                                                                </a:solidFill>
+                                                                <a:effectLst/>
+                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                <a:ea typeface="+mn-ea"/>
+                                                                <a:cs typeface="+mn-cs"/>
+                                                              </a:rPr>
+                                                              <m:t>°</m:t>
                                                             </m:r>
                                                           </m:e>
-                                                          <m:sub>
-                                                            <m:d>
-                                                              <m:dPr>
-                                                                <m:ctrlPr>
-                                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                </m:ctrlPr>
-                                                              </m:dPr>
-                                                              <m:e>
-                                                                <m:r>
-                                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                                    <a:solidFill>
-                                                                      <a:schemeClr val="tx1"/>
-                                                                    </a:solidFill>
-                                                                    <a:effectLst/>
-                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                                    <a:ea typeface="+mn-ea"/>
-                                                                    <a:cs typeface="+mn-cs"/>
-                                                                  </a:rPr>
-                                                                  <m:t>0°</m:t>
-                                                                </m:r>
-                                                              </m:e>
-                                                            </m:d>
-                                                          </m:sub>
-                                                        </m:sSub>
+                                                        </m:d>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>+</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>𝐼</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>(0</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>°</m:t>
+                                                        </m:r>
+                                                        <m:r>
+                                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="dk1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>)</m:t>
+                                                        </m:r>
                                                       </m:den>
                                                     </m:f>
                                                   </m:e>
@@ -8782,9 +8703,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
             </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
@@ -8802,28 +8720,28 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="5924547" y="4794614"/>
-              <a:ext cx="3095627" cy="809517"/>
+              <a:off x="6016622" y="4836974"/>
+              <a:ext cx="3567796" cy="572849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="dk1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -8850,6 +8768,18 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ψ</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -8859,7 +8789,67 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ψ=atan⁡(tan⁡(α_1 )∗tan⁡(├ acos⁡((I_(</a:t>
+                <a:t>=a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>tan⁡(tan⁡(α_1 )∗tan⁡(├ a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos⁡((𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(90</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -8871,7 +8861,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(90°)</a:t>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -8883,19 +8885,175 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> )−I_(</a:t>
+                <a:t>−𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(0°)</a:t>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>90</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)) ┤/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -8907,55 +9065,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ))/(I_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(90°)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )+I_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(0°)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ) )) ┤/2) )</a:t>
+                <a:t>2) )</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" i="0">
                 <a:solidFill>
@@ -8967,9 +9077,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
             </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
@@ -8979,9 +9086,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>48078</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3076575" cy="809624"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -8999,28 +9106,28 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924550" y="5476876"/>
+              <a:off x="6016626" y="6247266"/>
               <a:ext cx="3076575" cy="809624"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="dk1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -9107,7 +9214,37 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>acos</m:t>
+                          <m:t>a</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>rc</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>cos</m:t>
                         </m:r>
                       </m:fName>
                       <m:e>
@@ -9173,69 +9310,54 @@
                                         </m:ctrlPr>
                                       </m:fPr>
                                       <m:num>
-                                        <m:sSub>
-                                          <m:sSubPr>
-                                            <m:ctrlPr>
-                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                            </m:ctrlPr>
-                                          </m:sSubPr>
-                                          <m:e>
-                                            <m:r>
-                                              <m:rPr>
-                                                <m:sty m:val="p"/>
-                                              </m:rPr>
-                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>I</m:t>
-                                            </m:r>
-                                          </m:e>
-                                          <m:sub>
-                                            <m:d>
-                                              <m:dPr>
-                                                <m:ctrlPr>
-                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                </m:ctrlPr>
-                                              </m:dPr>
-                                              <m:e>
-                                                <m:r>
-                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                  <m:t>45°</m:t>
-                                                </m:r>
-                                              </m:e>
-                                            </m:d>
-                                          </m:sub>
-                                        </m:sSub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(45</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
                                         <m:r>
                                           <a:rPr lang="en-US" sz="1100" i="0">
                                             <a:solidFill>
@@ -9248,134 +9370,104 @@
                                           </a:rPr>
                                           <m:t>−</m:t>
                                         </m:r>
-                                        <m:sSub>
-                                          <m:sSubPr>
-                                            <m:ctrlPr>
-                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                            </m:ctrlPr>
-                                          </m:sSubPr>
-                                          <m:e>
-                                            <m:r>
-                                              <m:rPr>
-                                                <m:sty m:val="p"/>
-                                              </m:rPr>
-                                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>I</m:t>
-                                            </m:r>
-                                          </m:e>
-                                          <m:sub>
-                                            <m:d>
-                                              <m:dPr>
-                                                <m:ctrlPr>
-                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                </m:ctrlPr>
-                                              </m:dPr>
-                                              <m:e>
-                                                <m:r>
-                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                  <m:t>−45</m:t>
-                                                </m:r>
-                                              </m:e>
-                                            </m:d>
-                                          </m:sub>
-                                        </m:sSub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(−45</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
                                       </m:num>
                                       <m:den>
-                                        <m:sSub>
-                                          <m:sSubPr>
-                                            <m:ctrlPr>
-                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                            </m:ctrlPr>
-                                          </m:sSubPr>
-                                          <m:e>
-                                            <m:r>
-                                              <m:rPr>
-                                                <m:sty m:val="p"/>
-                                              </m:rPr>
-                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>I</m:t>
-                                            </m:r>
-                                          </m:e>
-                                          <m:sub>
-                                            <m:d>
-                                              <m:dPr>
-                                                <m:ctrlPr>
-                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                </m:ctrlPr>
-                                              </m:dPr>
-                                              <m:e>
-                                                <m:r>
-                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                  <m:t>45°</m:t>
-                                                </m:r>
-                                              </m:e>
-                                            </m:d>
-                                          </m:sub>
-                                        </m:sSub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(45</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
                                         <m:r>
                                           <a:rPr lang="en-US" sz="1100" i="0">
                                             <a:solidFill>
@@ -9388,69 +9480,54 @@
                                           </a:rPr>
                                           <m:t>+</m:t>
                                         </m:r>
-                                        <m:sSub>
-                                          <m:sSubPr>
-                                            <m:ctrlPr>
-                                              <a:rPr lang="en-US" sz="1100" i="1">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                            </m:ctrlPr>
-                                          </m:sSubPr>
-                                          <m:e>
-                                            <m:r>
-                                              <m:rPr>
-                                                <m:sty m:val="p"/>
-                                              </m:rPr>
-                                              <a:rPr lang="en-US" sz="1100" i="0">
-                                                <a:solidFill>
-                                                  <a:schemeClr val="tx1"/>
-                                                </a:solidFill>
-                                                <a:effectLst/>
-                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                <a:ea typeface="+mn-ea"/>
-                                                <a:cs typeface="+mn-cs"/>
-                                              </a:rPr>
-                                              <m:t>I</m:t>
-                                            </m:r>
-                                          </m:e>
-                                          <m:sub>
-                                            <m:d>
-                                              <m:dPr>
-                                                <m:ctrlPr>
-                                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                </m:ctrlPr>
-                                              </m:dPr>
-                                              <m:e>
-                                                <m:r>
-                                                  <a:rPr lang="en-US" sz="1100" i="0">
-                                                    <a:solidFill>
-                                                      <a:schemeClr val="tx1"/>
-                                                    </a:solidFill>
-                                                    <a:effectLst/>
-                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                                    <a:ea typeface="+mn-ea"/>
-                                                    <a:cs typeface="+mn-cs"/>
-                                                  </a:rPr>
-                                                  <m:t>−45°</m:t>
-                                                </m:r>
-                                              </m:e>
-                                            </m:d>
-                                          </m:sub>
-                                        </m:sSub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(−45</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
                                       </m:den>
                                     </m:f>
                                   </m:e>
@@ -9544,7 +9621,37 @@
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
-                                              <m:t>atan</m:t>
+                                              <m:t>a</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <m:rPr>
+                                                <m:sty m:val="p"/>
+                                              </m:rPr>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>rc</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <m:rPr>
+                                                <m:sty m:val="p"/>
+                                              </m:rPr>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>tan</m:t>
                                             </m:r>
                                           </m:fName>
                                           <m:e>
@@ -9789,28 +9896,28 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924550" y="5476876"/>
+              <a:off x="6016626" y="6247266"/>
               <a:ext cx="3076575" cy="809624"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="dk1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -9870,7 +9977,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>acos⁡(</a:t>
+                <a:t>a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos⁡(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -9887,6 +10018,18 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
@@ -9894,19 +10037,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>I_(</a:t>
+                <a:t>(45</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(45°)</a:t>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -9918,7 +10073,79 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> )−</a:t>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>45</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -9930,12 +10157,84 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>I_(</a:t>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(45</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
                     <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -9945,16 +10244,52 @@
                 <a:t>(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>−45)</a:t>
+                <a:t>45</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -9966,7 +10301,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ))/(</a:t>
+                <a:t>)┤/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -9978,19 +10313,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>I_(</a:t>
+                <a:t>sin⁡(2 a</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(45°)</a:t>
+                <a:t>rc</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -10002,31 +10337,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> )+I_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(−45°)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ) )┤/sin⁡(2 atan⁡(tan⁡(ψ)/tan⁡(α_1 ) ) ) )</a:t>
+                <a:t>tan⁡(tan⁡(ψ)/tan⁡(α_1 ) ) ) )</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" i="0">
                 <a:solidFill>
@@ -10049,9 +10360,9 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7277100" cy="933450"/>
+    <xdr:ext cx="7277100" cy="942974"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -10065,8 +10376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7277100" cy="933450"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="7277100" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10097,25 +10408,26 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Input</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> relative light intensity measurements as a function of angle of incidence and analyzer azimuth angle.</a:t>
+            <a:t> relative light intensity measurements as a function of angle of incidence and analyzer angle.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
           </a:br>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Ellipsometric paramteres </a:t>
+            <a:t>Ellipsometric parameters </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" baseline="0"/>
@@ -10138,7 +10450,7 @@
           </a:br>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Measuring ellipsometric parameters at additional angles of incidence and analyzer azimuth will provide more data points for which to increase confidence that the fit model accurately describes the properties of the sample.</a:t>
+            <a:t>Photometric measurements at additional angles of incidence will provide more data points to increase confidence that the fit model accurately describes the properties of the sample.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -10149,13 +10461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>425451</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10184,6 +10496,1365 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18141</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3076575" cy="809624"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A81CF8-1F4E-4824-B349-9F09DB1A7F22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6016626" y="5423579"/>
+              <a:ext cx="3076575" cy="809624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Δ</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>a</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>rc</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>cos</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:begChr m:val=""/>
+                                    <m:endChr m:val=""/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:f>
+                                      <m:fPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:fPr>
+                                      <m:num>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>2</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:d>
+                                          <m:dPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:dPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>45</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>°</m:t>
+                                            </m:r>
+                                          </m:e>
+                                        </m:d>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>−</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:d>
+                                          <m:dPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:dPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>0</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>°</m:t>
+                                            </m:r>
+                                          </m:e>
+                                        </m:d>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>−</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(90</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
+                                      </m:num>
+                                      <m:den>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:d>
+                                          <m:dPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:dPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>0</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="dk1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>°</m:t>
+                                            </m:r>
+                                          </m:e>
+                                        </m:d>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>+</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>(90</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>°</m:t>
+                                        </m:r>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="dk1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>)</m:t>
+                                        </m:r>
+                                      </m:den>
+                                    </m:f>
+                                  </m:e>
+                                </m:d>
+                              </m:num>
+                              <m:den>
+                                <m:func>
+                                  <m:funcPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:funcPr>
+                                  <m:fName>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:sty m:val="p"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" sz="1100" i="0">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>sin</m:t>
+                                    </m:r>
+                                  </m:fName>
+                                  <m:e>
+                                    <m:d>
+                                      <m:dPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:dPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>2</m:t>
+                                        </m:r>
+                                        <m:func>
+                                          <m:funcPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1100" i="1">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:funcPr>
+                                          <m:fName>
+                                            <m:r>
+                                              <m:rPr>
+                                                <m:sty m:val="p"/>
+                                              </m:rPr>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>a</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <m:rPr>
+                                                <m:sty m:val="p"/>
+                                              </m:rPr>
+                                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>rc</m:t>
+                                            </m:r>
+                                            <m:r>
+                                              <m:rPr>
+                                                <m:sty m:val="p"/>
+                                              </m:rPr>
+                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                <a:solidFill>
+                                                  <a:schemeClr val="tx1"/>
+                                                </a:solidFill>
+                                                <a:effectLst/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="+mn-ea"/>
+                                                <a:cs typeface="+mn-cs"/>
+                                              </a:rPr>
+                                              <m:t>tan</m:t>
+                                            </m:r>
+                                          </m:fName>
+                                          <m:e>
+                                            <m:d>
+                                              <m:dPr>
+                                                <m:ctrlPr>
+                                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                                    <a:solidFill>
+                                                      <a:schemeClr val="tx1"/>
+                                                    </a:solidFill>
+                                                    <a:effectLst/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                    <a:ea typeface="+mn-ea"/>
+                                                    <a:cs typeface="+mn-cs"/>
+                                                  </a:rPr>
+                                                </m:ctrlPr>
+                                              </m:dPr>
+                                              <m:e>
+                                                <m:f>
+                                                  <m:fPr>
+                                                    <m:ctrlPr>
+                                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                                        <a:solidFill>
+                                                          <a:schemeClr val="tx1"/>
+                                                        </a:solidFill>
+                                                        <a:effectLst/>
+                                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                        <a:ea typeface="+mn-ea"/>
+                                                        <a:cs typeface="+mn-cs"/>
+                                                      </a:rPr>
+                                                    </m:ctrlPr>
+                                                  </m:fPr>
+                                                  <m:num>
+                                                    <m:func>
+                                                      <m:funcPr>
+                                                        <m:ctrlPr>
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                        </m:ctrlPr>
+                                                      </m:funcPr>
+                                                      <m:fName>
+                                                        <m:r>
+                                                          <m:rPr>
+                                                            <m:sty m:val="p"/>
+                                                          </m:rPr>
+                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>tan</m:t>
+                                                        </m:r>
+                                                      </m:fName>
+                                                      <m:e>
+                                                        <m:d>
+                                                          <m:dPr>
+                                                            <m:ctrlPr>
+                                                              <a:rPr lang="en-US" sz="1100" i="1">
+                                                                <a:solidFill>
+                                                                  <a:schemeClr val="tx1"/>
+                                                                </a:solidFill>
+                                                                <a:effectLst/>
+                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                <a:ea typeface="+mn-ea"/>
+                                                                <a:cs typeface="+mn-cs"/>
+                                                              </a:rPr>
+                                                            </m:ctrlPr>
+                                                          </m:dPr>
+                                                          <m:e>
+                                                            <m:r>
+                                                              <m:rPr>
+                                                                <m:sty m:val="p"/>
+                                                              </m:rPr>
+                                                              <a:rPr lang="en-US" sz="1100" i="0">
+                                                                <a:solidFill>
+                                                                  <a:schemeClr val="tx1"/>
+                                                                </a:solidFill>
+                                                                <a:effectLst/>
+                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                <a:ea typeface="+mn-ea"/>
+                                                                <a:cs typeface="+mn-cs"/>
+                                                              </a:rPr>
+                                                              <m:t>ψ</m:t>
+                                                            </m:r>
+                                                          </m:e>
+                                                        </m:d>
+                                                      </m:e>
+                                                    </m:func>
+                                                  </m:num>
+                                                  <m:den>
+                                                    <m:func>
+                                                      <m:funcPr>
+                                                        <m:ctrlPr>
+                                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                        </m:ctrlPr>
+                                                      </m:funcPr>
+                                                      <m:fName>
+                                                        <m:r>
+                                                          <m:rPr>
+                                                            <m:sty m:val="p"/>
+                                                          </m:rPr>
+                                                          <a:rPr lang="en-US" sz="1100" i="0">
+                                                            <a:solidFill>
+                                                              <a:schemeClr val="tx1"/>
+                                                            </a:solidFill>
+                                                            <a:effectLst/>
+                                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                            <a:ea typeface="+mn-ea"/>
+                                                            <a:cs typeface="+mn-cs"/>
+                                                          </a:rPr>
+                                                          <m:t>tan</m:t>
+                                                        </m:r>
+                                                      </m:fName>
+                                                      <m:e>
+                                                        <m:d>
+                                                          <m:dPr>
+                                                            <m:ctrlPr>
+                                                              <a:rPr lang="en-US" sz="1100" i="1">
+                                                                <a:solidFill>
+                                                                  <a:schemeClr val="tx1"/>
+                                                                </a:solidFill>
+                                                                <a:effectLst/>
+                                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                <a:ea typeface="+mn-ea"/>
+                                                                <a:cs typeface="+mn-cs"/>
+                                                              </a:rPr>
+                                                            </m:ctrlPr>
+                                                          </m:dPr>
+                                                          <m:e>
+                                                            <m:sSub>
+                                                              <m:sSubPr>
+                                                                <m:ctrlPr>
+                                                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                                                    <a:solidFill>
+                                                                      <a:schemeClr val="tx1"/>
+                                                                    </a:solidFill>
+                                                                    <a:effectLst/>
+                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                    <a:ea typeface="+mn-ea"/>
+                                                                    <a:cs typeface="+mn-cs"/>
+                                                                  </a:rPr>
+                                                                </m:ctrlPr>
+                                                              </m:sSubPr>
+                                                              <m:e>
+                                                                <m:r>
+                                                                  <m:rPr>
+                                                                    <m:sty m:val="p"/>
+                                                                  </m:rPr>
+                                                                  <a:rPr lang="en-US" sz="1100" i="0">
+                                                                    <a:solidFill>
+                                                                      <a:schemeClr val="tx1"/>
+                                                                    </a:solidFill>
+                                                                    <a:effectLst/>
+                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                    <a:ea typeface="+mn-ea"/>
+                                                                    <a:cs typeface="+mn-cs"/>
+                                                                  </a:rPr>
+                                                                  <m:t>α</m:t>
+                                                                </m:r>
+                                                              </m:e>
+                                                              <m:sub>
+                                                                <m:r>
+                                                                  <a:rPr lang="en-US" sz="1100" i="0">
+                                                                    <a:solidFill>
+                                                                      <a:schemeClr val="tx1"/>
+                                                                    </a:solidFill>
+                                                                    <a:effectLst/>
+                                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                                    <a:ea typeface="+mn-ea"/>
+                                                                    <a:cs typeface="+mn-cs"/>
+                                                                  </a:rPr>
+                                                                  <m:t>1</m:t>
+                                                                </m:r>
+                                                              </m:sub>
+                                                            </m:sSub>
+                                                          </m:e>
+                                                        </m:d>
+                                                      </m:e>
+                                                    </m:func>
+                                                  </m:den>
+                                                </m:f>
+                                              </m:e>
+                                            </m:d>
+                                          </m:e>
+                                        </m:func>
+                                      </m:e>
+                                    </m:d>
+                                  </m:e>
+                                </m:func>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A81CF8-1F4E-4824-B349-9F09DB1A7F22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6016626" y="5423579"/>
+              <a:ext cx="3076575" cy="809624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Δ=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos⁡(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>├ (2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>45</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(90</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(90</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)┤/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>sin⁡(2 a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>tan⁡(tan⁡(ψ)/tan⁡(α_1 ) ) ) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10238,7 +11909,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10265,78 +11936,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10058400" cy="466725"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F973E63C-EE16-44AF-AC16-3BD9D67ECBFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3400425"/>
-          <a:ext cx="10058400" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Left</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> graph displays the model fit to the experimental determinations of the ellipsometric parameters.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Right graph displays error of ellipsometric parameters.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11052,8 +12651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AC0D7D-A2E3-4F36-8931-83ED4983A7F4}">
   <dimension ref="O1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11063,7 +12662,7 @@
   <sheetData>
     <row r="1" spans="15:18" ht="15.75" thickBot="1">
       <c r="O1" s="182" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P1" s="188"/>
       <c r="Q1" s="188"/>
@@ -11071,18 +12670,18 @@
     </row>
     <row r="2" spans="15:18" ht="15.75" thickBot="1">
       <c r="O2" s="184" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P2" s="185"/>
       <c r="Q2" s="186" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" s="187"/>
     </row>
     <row r="3" spans="15:18" ht="15.75" thickBot="1"/>
     <row r="4" spans="15:18" ht="15.75" thickBot="1">
       <c r="O4" s="189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="190"/>
       <c r="Q4" s="190"/>
@@ -11118,13 +12717,13 @@
   <dimension ref="A5:H997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
@@ -11137,7 +12736,7 @@
     <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="216"/>
       <c r="B6" s="212" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C6" s="212"/>
       <c r="D6" s="212"/>
@@ -11164,13 +12763,13 @@
       </c>
       <c r="B8" s="202"/>
       <c r="C8" s="196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="197"/>
       <c r="E8" s="197"/>
       <c r="F8" s="198"/>
       <c r="G8" s="214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="215"/>
     </row>
@@ -11193,7 +12792,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C10" s="160">
         <v>45</v>
@@ -11212,7 +12811,7 @@
         <v>#N/A</v>
       </c>
       <c r="H10" s="208" t="e">
-        <f>IFERROR(DEGREES(ACOS(((C11-E11)/(C11+E11))/(SIN(2*ATAN(TAN(RADIANS(G10))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f>IFERROR(IF(ISNUMBER(E11),DEGREES(ACOS(((C11-E11)/(C11+E11))/(SIN(2*ATAN(TAN(RADIANS(G10))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C11-F11-D11)/(F11+D11))/(SIN(2*ATAN(TAN(RADIANS(G10))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11233,7 +12832,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C12" s="160">
         <v>45</v>
@@ -11252,7 +12851,7 @@
         <v>46.579818151446474</v>
       </c>
       <c r="H12" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C13-E13)/(C13+E13))/(SIN(2*ATAN(TAN(RADIANS(G12))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H12" si="0">IFERROR(IF(ISNUMBER(E13),DEGREES(ACOS(((C13-E13)/(C13+E13))/(SIN(2*ATAN(TAN(RADIANS(G12))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C13-F13-D13)/(F13+D13))/(SIN(2*ATAN(TAN(RADIANS(G12))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>170.75402436574791</v>
       </c>
     </row>
@@ -11281,7 +12880,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C14" s="160">
         <v>45</v>
@@ -11300,7 +12899,7 @@
         <v>43.027953143578067</v>
       </c>
       <c r="H14" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C15-E15)/(C15+E15))/(SIN(2*ATAN(TAN(RADIANS(G14))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H14" si="1">IFERROR(IF(ISNUMBER(E15),DEGREES(ACOS(((C15-E15)/(C15+E15))/(SIN(2*ATAN(TAN(RADIANS(G14))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C15-F15-D15)/(F15+D15))/(SIN(2*ATAN(TAN(RADIANS(G14))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>166.66451444628117</v>
       </c>
     </row>
@@ -11329,7 +12928,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C16" s="160">
         <v>45</v>
@@ -11348,7 +12947,7 @@
         <v>38.861338154560229</v>
       </c>
       <c r="H16" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C17-E17)/(C17+E17))/(SIN(2*ATAN(TAN(RADIANS(G16))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H16" si="2">IFERROR(IF(ISNUMBER(E17),DEGREES(ACOS(((C17-E17)/(C17+E17))/(SIN(2*ATAN(TAN(RADIANS(G16))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C17-F17-D17)/(F17+D17))/(SIN(2*ATAN(TAN(RADIANS(G16))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>164.74685228171722</v>
       </c>
     </row>
@@ -11377,7 +12976,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C18" s="160">
         <v>45</v>
@@ -11396,7 +12995,7 @@
         <v>35.694268016732146</v>
       </c>
       <c r="H18" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C19-E19)/(C19+E19))/(SIN(2*ATAN(TAN(RADIANS(G18))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H18" si="3">IFERROR(IF(ISNUMBER(E19),DEGREES(ACOS(((C19-E19)/(C19+E19))/(SIN(2*ATAN(TAN(RADIANS(G18))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C19-F19-D19)/(F19+D19))/(SIN(2*ATAN(TAN(RADIANS(G18))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>169.10930014377632</v>
       </c>
     </row>
@@ -11425,7 +13024,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C20" s="160">
         <v>45</v>
@@ -11444,7 +13043,7 @@
         <v>33.210910760899075</v>
       </c>
       <c r="H20" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C21-E21)/(C21+E21))/(SIN(2*ATAN(TAN(RADIANS(G20))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H20" si="4">IFERROR(IF(ISNUMBER(E21),DEGREES(ACOS(((C21-E21)/(C21+E21))/(SIN(2*ATAN(TAN(RADIANS(G20))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C21-F21-D21)/(F21+D21))/(SIN(2*ATAN(TAN(RADIANS(G20))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>172.62123438740906</v>
       </c>
     </row>
@@ -11473,7 +13072,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C22" s="164">
         <v>45</v>
@@ -11492,7 +13091,7 @@
         <v>32.201490261252303</v>
       </c>
       <c r="H22" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C23-E23)/(C23+E23))/(SIN(2*ATAN(TAN(RADIANS(G22))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H22" si="5">IFERROR(IF(ISNUMBER(E23),DEGREES(ACOS(((C23-E23)/(C23+E23))/(SIN(2*ATAN(TAN(RADIANS(G22))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C23-F23-D23)/(F23+D23))/(SIN(2*ATAN(TAN(RADIANS(G22))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>150.21361539703906</v>
       </c>
     </row>
@@ -11521,7 +13120,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C24" s="168">
         <v>45</v>
@@ -11540,7 +13139,7 @@
         <v>41.437599422423631</v>
       </c>
       <c r="H24" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C25-E25)/(C25+E25))/(SIN(2*ATAN(TAN(RADIANS(G24))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H24" si="6">IFERROR(IF(ISNUMBER(E25),DEGREES(ACOS(((C25-E25)/(C25+E25))/(SIN(2*ATAN(TAN(RADIANS(G24))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C25-F25-D25)/(F25+D25))/(SIN(2*ATAN(TAN(RADIANS(G24))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>129.28229305675629</v>
       </c>
     </row>
@@ -11569,7 +13168,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C26" s="168">
         <v>45</v>
@@ -11588,7 +13187,7 @@
         <v>64.396405593318363</v>
       </c>
       <c r="H26" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C27-E27)/(C27+E27))/(SIN(2*ATAN(TAN(RADIANS(G26))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H26" si="7">IFERROR(IF(ISNUMBER(E27),DEGREES(ACOS(((C27-E27)/(C27+E27))/(SIN(2*ATAN(TAN(RADIANS(G26))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C27-F27-D27)/(F27+D27))/(SIN(2*ATAN(TAN(RADIANS(G26))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>147.70171196832246</v>
       </c>
     </row>
@@ -11617,7 +13216,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C28" s="168">
         <v>45</v>
@@ -11636,7 +13235,7 @@
         <v>39.692446074646021</v>
       </c>
       <c r="H28" s="208">
-        <f>IFERROR(DEGREES(ACOS(((C29-E29)/(C29+E29))/(SIN(2*ATAN(TAN(RADIANS(G28))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H28" si="8">IFERROR(IF(ISNUMBER(E29),DEGREES(ACOS(((C29-E29)/(C29+E29))/(SIN(2*ATAN(TAN(RADIANS(G28))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C29-F29-D29)/(F29+D29))/(SIN(2*ATAN(TAN(RADIANS(G28))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>97.210059130547009</v>
       </c>
     </row>
@@ -11665,7 +13264,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C30" s="168">
         <v>45</v>
@@ -11684,7 +13283,7 @@
         <v>#N/A</v>
       </c>
       <c r="H30" s="208" t="e">
-        <f>IFERROR(DEGREES(ACOS(((C31-E31)/(C31+E31))/(SIN(2*ATAN(TAN(RADIANS(G30))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H30" si="9">IFERROR(IF(ISNUMBER(E31),DEGREES(ACOS(((C31-E31)/(C31+E31))/(SIN(2*ATAN(TAN(RADIANS(G30))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C31-F31-D31)/(F31+D31))/(SIN(2*ATAN(TAN(RADIANS(G30))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11705,7 +13304,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C32" s="172">
         <v>45</v>
@@ -11724,7 +13323,7 @@
         <v>#N/A</v>
       </c>
       <c r="H32" s="208" t="e">
-        <f>IFERROR(DEGREES(ACOS(((C33-E33)/(C33+E33))/(SIN(2*ATAN(TAN(RADIANS(G32))/TAN(RADIANS($B$7))))))),NA())</f>
+        <f t="shared" ref="H32" si="10">IFERROR(IF(ISNUMBER(E33),DEGREES(ACOS(((C33-E33)/(C33+E33))/(SIN(2*ATAN(TAN(RADIANS(G32))/TAN(RADIANS($B$7))))))),DEGREES(ACOS(((2*C33-F33-D33)/(F33+D33))/(SIN(2*ATAN(TAN(RADIANS(G32))/TAN(RADIANS($B$7)))))))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12762,20 +14361,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF9D57E-1C53-4987-A03E-C3F441245BD8}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="20" bestFit="1" customWidth="1"/>
@@ -12805,113 +14404,188 @@
     <row r="15" s="24" customFormat="1"/>
     <row r="16" s="24" customFormat="1"/>
     <row r="17" spans="1:23" s="24" customFormat="1"/>
-    <row r="18" spans="1:23" s="24" customFormat="1"/>
-    <row r="19" spans="1:23" s="24" customFormat="1">
-      <c r="K19"/>
+    <row r="18" spans="1:23" s="24" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="214" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="219"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="214" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="219"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="214" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="215"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
       <c r="L19"/>
       <c r="M19"/>
+      <c r="S19" s="218"/>
+      <c r="T19" s="218"/>
     </row>
-    <row r="20" spans="1:23" s="24" customFormat="1" ht="15.75" thickBot="1">
-      <c r="J20"/>
-      <c r="K20"/>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
       <c r="L20"/>
-      <c r="M20" s="156"/>
+      <c r="M20"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="214" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="214" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="219"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="214" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="215"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
+    <row r="21" spans="1:23">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="e">
+        <f>VLOOKUP($A21,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="14" t="e">
+        <f>VLOOKUP($A21,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="21" t="e">
+        <f t="shared" ref="D21:D28" si="0">IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B21)),IMEXP(IMPRODUCT("i",RADIANS($C21)))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="14">
+        <f>VLOOKUP($A21,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
+        <v>45.27524876112097</v>
+      </c>
+      <c r="F21" s="14">
+        <f>VLOOKUP($A21,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
+        <v>176.10327438515367</v>
+      </c>
+      <c r="G21" s="22" t="str">
+        <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E21)),IMEXP(IMPRODUCT("i",RADIANS($F21))))</f>
+        <v>-1.00732029319911+0.0686143737503771i</v>
+      </c>
+      <c r="H21" s="151" t="e">
+        <f>IFERROR(ABS((B21-E21)/E21),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="151" t="e">
+        <f t="shared" ref="I21:I28" si="1">IFERROR(ABS((C21-F21)/F21),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" ht="18" thickBot="1">
-      <c r="A22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="U22" s="5"/>
+    <row r="22" spans="1:23">
+      <c r="A22" s="16">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14">
+        <f>VLOOKUP($A22,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
+        <v>46.579818151446474</v>
+      </c>
+      <c r="C22" s="14">
+        <f>VLOOKUP($A22,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
+        <v>170.75402436574791</v>
+      </c>
+      <c r="D22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-1.04299516908213+0.169787349169531i</v>
+      </c>
+      <c r="E22" s="14">
+        <f>VLOOKUP($A22,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
+        <v>46.53287189196508</v>
+      </c>
+      <c r="F22" s="14">
+        <f>VLOOKUP($A22,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
+        <v>176.40970068074145</v>
+      </c>
+      <c r="G22" s="22" t="str">
+        <f t="shared" ref="G22:G28" si="2">IMPRODUCT(_xlfn.IMTAN(RADIANS($E22)),IMEXP(IMPRODUCT("i",RADIANS($F22))))</f>
+        <v>-1.05292108795985+0.0660652073390131i</v>
+      </c>
+      <c r="H22" s="151">
+        <f>IFERROR(ABS((B22-E22)/E22),NA())</f>
+        <v>1.0088837755466594E-3</v>
+      </c>
+      <c r="I22" s="151">
+        <f>IFERROR(ABS((C22-F22)/F22),NA())</f>
+        <v>3.2059894060071772E-2</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
       <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="16">
-        <v>20</v>
-      </c>
-      <c r="B23" s="14" t="e">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14">
         <f>VLOOKUP($A23,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" s="14" t="e">
+        <v>43.027953143578067</v>
+      </c>
+      <c r="C23" s="14">
         <f>VLOOKUP($A23,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="21" t="e">
-        <f t="shared" ref="D23:D30" si="0">IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B23)),IMEXP(IMPRODUCT("i",RADIANS($C23)))),NA())</f>
-        <v>#N/A</v>
+        <v>166.66451444628117</v>
+      </c>
+      <c r="D23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.908258874667954+0.215297341599409i</v>
       </c>
       <c r="E23" s="14">
         <f>VLOOKUP($A23,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>45.27524876112097</v>
+        <v>42.5933741689405</v>
       </c>
       <c r="F23" s="14">
         <f>VLOOKUP($A23,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>176.10327438515367</v>
+        <v>168.18305404898874</v>
       </c>
       <c r="G23" s="22" t="str">
-        <f t="shared" ref="G23:G30" si="1">IMPRODUCT(_xlfn.IMTAN(RADIANS($E23)),IMEXP(IMPRODUCT("i",RADIANS($F23))))</f>
-        <v>-1.00732029319911+0.0686143737503771i</v>
-      </c>
-      <c r="H23" s="151" t="e">
-        <f t="shared" ref="H23:H30" si="2">IFERROR(ABS((B23-E23)/E23),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="151" t="e">
-        <f t="shared" ref="I23:I30" si="3">IFERROR(ABS((C23-F23)/F23),NA())</f>
-        <v>#N/A</v>
+        <f t="shared" si="2"/>
+        <v>-0.899850169319497+0.188266269322302i</v>
+      </c>
+      <c r="H23" s="151">
+        <f t="shared" ref="H23:H28" si="3">IFERROR(ABS((B23-E23)/E23),NA())</f>
+        <v>1.020297130990074E-2</v>
+      </c>
+      <c r="I23" s="151">
+        <f t="shared" si="1"/>
+        <v>9.0290880451322931E-3</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -12922,39 +14596,39 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="16">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14">
         <f>VLOOKUP($A24,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>46.579818151446474</v>
+        <v>38.861338154560229</v>
       </c>
       <c r="C24" s="14">
         <f>VLOOKUP($A24,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>170.75402436574791</v>
+        <v>164.74685228171722</v>
       </c>
       <c r="D24" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>-1.04299516908213+0.169787349169531i</v>
+        <v>-0.777399289099527+0.211989256410831i</v>
       </c>
       <c r="E24" s="14">
         <f>VLOOKUP($A24,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>46.53287189196508</v>
+        <v>39.238325761493783</v>
       </c>
       <c r="F24" s="14">
         <f>VLOOKUP($A24,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>176.40970068074145</v>
+        <v>168.12454171728305</v>
       </c>
       <c r="G24" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>-1.05292108795985+0.0660652073390131i</v>
+        <f t="shared" si="2"/>
+        <v>-0.799215023327781+0.168063520618849i</v>
       </c>
       <c r="H24" s="151">
         <f>IFERROR(ABS((B24-E24)/E24),NA())</f>
-        <v>1.0088837755466594E-3</v>
+        <v>9.6076374212558172E-3</v>
       </c>
       <c r="I24" s="151">
-        <f t="shared" si="3"/>
-        <v>3.2059894060071772E-2</v>
+        <f>IFERROR(ABS((C24-F24)/F24),NA())</f>
+        <v>2.0090400848471749E-2</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -12965,39 +14639,39 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B25" s="14">
         <f>VLOOKUP($A25,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>43.027953143578067</v>
+        <v>35.694268016732146</v>
       </c>
       <c r="C25" s="14">
         <f>VLOOKUP($A25,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>166.66451444628117</v>
+        <v>169.10930014377632</v>
       </c>
       <c r="D25" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>-0.908258874667954+0.215297341599409i</v>
+        <v>-0.705482006339735+0.13573566586909i</v>
       </c>
       <c r="E25" s="14">
         <f>VLOOKUP($A25,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>42.5933741689405</v>
+        <v>36.906978349837694</v>
       </c>
       <c r="F25" s="14">
         <f>VLOOKUP($A25,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>168.18305404898874</v>
+        <v>173.89991566213038</v>
       </c>
       <c r="G25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.746759322810276+0.0798066611936724i</v>
+      </c>
+      <c r="H25" s="151">
+        <f t="shared" si="3"/>
+        <v>3.2858564621855074E-2</v>
+      </c>
+      <c r="I25" s="151">
         <f t="shared" si="1"/>
-        <v>-0.899850169319497+0.188266269322302i</v>
-      </c>
-      <c r="H25" s="151">
-        <f t="shared" si="2"/>
-        <v>1.020297130990074E-2</v>
-      </c>
-      <c r="I25" s="151">
-        <f t="shared" si="3"/>
-        <v>9.0290880451322931E-3</v>
+        <v>2.7548118698698689E-2</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -13008,39 +14682,39 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B26" s="14">
         <f>VLOOKUP($A26,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>38.861338154560229</v>
+        <v>33.210910760899075</v>
       </c>
       <c r="C26" s="14">
         <f>VLOOKUP($A26,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>164.74685228171722</v>
+        <v>172.62123438740906</v>
       </c>
       <c r="D26" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>-0.777399289099527+0.211989256410831i</v>
+        <v>-0.649232370543845+0.0840759038574506i</v>
       </c>
       <c r="E26" s="14">
         <f>VLOOKUP($A26,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>39.238325761493783</v>
+        <v>34.425348745840516</v>
       </c>
       <c r="F26" s="14">
         <f>VLOOKUP($A26,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>168.12454171728305</v>
+        <v>172.79821608387977</v>
       </c>
       <c r="G26" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.679957350090719+0.085920097970445i</v>
+      </c>
+      <c r="H26" s="151">
+        <f t="shared" si="3"/>
+        <v>3.5277434483163415E-2</v>
+      </c>
+      <c r="I26" s="151">
         <f t="shared" si="1"/>
-        <v>-0.799215023327781+0.168063520618849i</v>
-      </c>
-      <c r="H26" s="151">
-        <f>IFERROR(ABS((B26-E26)/E26),NA())</f>
-        <v>9.6076374212558172E-3</v>
-      </c>
-      <c r="I26" s="151">
-        <f>IFERROR(ABS((C26-F26)/F26),NA())</f>
-        <v>2.0090400848471749E-2</v>
+        <v>1.0242102058784809E-3</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -13051,351 +14725,285 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B27" s="14">
         <f>VLOOKUP($A27,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>35.694268016732146</v>
+        <v>32.201490261252303</v>
       </c>
       <c r="C27" s="14">
         <f>VLOOKUP($A27,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>169.10930014377632</v>
+        <v>150.21361539703906</v>
       </c>
       <c r="D27" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>-0.705482006339735+0.13573566586909i</v>
+        <v>-0.546566951031605+0.31284938473895i</v>
       </c>
       <c r="E27" s="14">
         <f>VLOOKUP($A27,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>36.906978349837694</v>
+        <v>32.947968338928305</v>
       </c>
       <c r="F27" s="14">
         <f>VLOOKUP($A27,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>173.89991566213038</v>
+        <v>149.53715654420253</v>
       </c>
       <c r="G27" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.558649923501517+0.328582148817699i</v>
+      </c>
+      <c r="H27" s="151">
+        <f>IFERROR(ABS((B27-E27)/E27),NA())</f>
+        <v>2.265627033500673E-2</v>
+      </c>
+      <c r="I27" s="151">
         <f t="shared" si="1"/>
-        <v>-0.746759322810276+0.0798066611936724i</v>
-      </c>
-      <c r="H27" s="151">
-        <f t="shared" si="2"/>
-        <v>3.2858564621855074E-2</v>
-      </c>
-      <c r="I27" s="151">
-        <f t="shared" si="3"/>
-        <v>2.7548118698698689E-2</v>
+        <v>4.5236840693608747E-3</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="M27" s="154"/>
       <c r="N27" s="154"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="16">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B28" s="14">
         <f>VLOOKUP($A28,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>33.210910760899075</v>
+        <v>41.437599422423631</v>
       </c>
       <c r="C28" s="14">
         <f>VLOOKUP($A28,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>172.62123438740906</v>
+        <v>129.28229305675629</v>
       </c>
       <c r="D28" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>-0.649232370543845+0.0840759038574506i</v>
+        <v>-0.558928342520188+0.683307729178604i</v>
       </c>
       <c r="E28" s="14">
         <f>VLOOKUP($A28,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>34.425348745840516</v>
+        <v>42.449466110732601</v>
       </c>
       <c r="F28" s="14">
         <f>VLOOKUP($A28,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>172.79821608387977</v>
+        <v>126.15052744666409</v>
       </c>
       <c r="G28" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.539595320407904+0.738600806729938i</v>
+      </c>
+      <c r="H28" s="151">
+        <f t="shared" si="3"/>
+        <v>2.3836970897806828E-2</v>
+      </c>
+      <c r="I28" s="151">
         <f t="shared" si="1"/>
-        <v>-0.679957350090719+0.085920097970445i</v>
-      </c>
-      <c r="H28" s="151">
-        <f t="shared" si="2"/>
-        <v>3.5277434483163415E-2</v>
-      </c>
-      <c r="I28" s="151">
-        <f t="shared" si="3"/>
-        <v>1.0242102058784809E-3</v>
+        <v>2.4825624382873068E-2</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="M28" s="154"/>
       <c r="N28" s="154"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B29" s="14">
         <f>VLOOKUP($A29,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>32.201490261252303</v>
+        <v>64.396405593318363</v>
       </c>
       <c r="C29" s="14">
         <f>VLOOKUP($A29,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>150.21361539703906</v>
+        <v>147.70171196832246</v>
       </c>
       <c r="D29" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>-0.546566951031605+0.31284938473895i</v>
+        <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B29)),IMEXP(IMPRODUCT("i",RADIANS($C29)))),NA())</f>
+        <v>-1.76394686907021+1.11504715271366i</v>
       </c>
       <c r="E29" s="14">
         <f>VLOOKUP($A29,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>32.947968338928305</v>
+        <v>69.537141472658888</v>
       </c>
       <c r="F29" s="14">
         <f>VLOOKUP($A29,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>149.53715654420253</v>
+        <v>147.82099181378527</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.558649923501517+0.328582148817699i</v>
+        <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E29)),IMEXP(IMPRODUCT("i",RADIANS($F29))))</f>
+        <v>-2.26824980731351+1.4272328130306i</v>
       </c>
       <c r="H29" s="151">
-        <f>IFERROR(ABS((B29-E29)/E29),NA())</f>
-        <v>2.265627033500673E-2</v>
+        <f t="shared" ref="H29:I32" si="4">IFERROR(ABS((B29-E29)/E29),NA())</f>
+        <v>7.3927914931070274E-2</v>
       </c>
       <c r="I29" s="151">
-        <f t="shared" si="3"/>
-        <v>4.5236840693608747E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.0692088450518441E-4</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="16">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B30" s="14">
         <f>VLOOKUP($A30,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>41.437599422423631</v>
+        <v>39.692446074646021</v>
       </c>
       <c r="C30" s="14">
         <f>VLOOKUP($A30,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>129.28229305675629</v>
+        <v>97.210059130547009</v>
       </c>
       <c r="D30" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>-0.558928342520188+0.683307729178604i</v>
+        <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B30)),IMEXP(IMPRODUCT("i",RADIANS($C30)))),NA())</f>
+        <v>-0.104170312044327+0.823430285438589i</v>
       </c>
       <c r="E30" s="14">
         <f>VLOOKUP($A30,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>42.449466110732601</v>
+        <v>38.182768064530634</v>
       </c>
       <c r="F30" s="14">
         <f>VLOOKUP($A30,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>126.15052744666409</v>
+        <v>95.656641456171982</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.539595320407904+0.738600806729938i</v>
+        <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E30)),IMEXP(IMPRODUCT("i",RADIANS($F30))))</f>
+        <v>-0.0775163651498085+0.78260593305774i</v>
       </c>
       <c r="H30" s="151">
-        <f t="shared" si="2"/>
-        <v>2.3836970897806828E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.9538202352536661E-2</v>
       </c>
       <c r="I30" s="151">
-        <f t="shared" si="3"/>
-        <v>2.4825624382873068E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.6239517201602487E-2</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="159"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="16">
-        <v>60</v>
-      </c>
-      <c r="B31" s="14">
+        <v>70</v>
+      </c>
+      <c r="B31" s="14" t="e">
         <f>VLOOKUP($A31,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>64.396405593318363</v>
-      </c>
-      <c r="C31" s="14">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="14" t="e">
         <f>VLOOKUP($A31,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>147.70171196832246</v>
-      </c>
-      <c r="D31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="21" t="e">
         <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B31)),IMEXP(IMPRODUCT("i",RADIANS($C31)))),NA())</f>
-        <v>-1.76394686907021+1.11504715271366i</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" s="14">
         <f>VLOOKUP($A31,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>69.537141472658888</v>
+        <v>26.351391781312614</v>
       </c>
       <c r="F31" s="14">
         <f>VLOOKUP($A31,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>147.82099181378527</v>
+        <v>87.433896550046825</v>
       </c>
       <c r="G31" s="22" t="str">
         <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E31)),IMEXP(IMPRODUCT("i",RADIANS($F31))))</f>
-        <v>-2.26824980731351+1.4272328130306i</v>
-      </c>
-      <c r="H31" s="151">
-        <f t="shared" ref="H31:I34" si="4">IFERROR(ABS((B31-E31)/E31),NA())</f>
-        <v>7.3927914931070274E-2</v>
-      </c>
-      <c r="I31" s="151">
+        <v>0.0221776820938759+0.494850610113642i</v>
+      </c>
+      <c r="H31" s="151" t="e">
         <f t="shared" si="4"/>
-        <v>8.0692088450518441E-4</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="151" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="16">
-        <v>65</v>
-      </c>
-      <c r="B32" s="14">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="26">
+        <v>75</v>
+      </c>
+      <c r="B32" s="15" t="e">
         <f>VLOOKUP($A32,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>39.692446074646021</v>
-      </c>
-      <c r="C32" s="14">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="15" t="e">
         <f>VLOOKUP($A32,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>97.210059130547009</v>
-      </c>
-      <c r="D32" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="19" t="e">
         <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B32)),IMEXP(IMPRODUCT("i",RADIANS($C32)))),NA())</f>
-        <v>-0.104170312044327+0.823430285438589i</v>
-      </c>
-      <c r="E32" s="14">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="15">
         <f>VLOOKUP($A32,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>38.182768064530634</v>
-      </c>
-      <c r="F32" s="14">
+        <v>17.344223505173044</v>
+      </c>
+      <c r="F32" s="15">
         <f>VLOOKUP($A32,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>95.656641456171982</v>
-      </c>
-      <c r="G32" s="22" t="str">
+        <v>75.730205058062424</v>
+      </c>
+      <c r="G32" s="27" t="str">
         <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E32)),IMEXP(IMPRODUCT("i",RADIANS($F32))))</f>
-        <v>-0.0775163651498085+0.78260593305774i</v>
-      </c>
-      <c r="H32" s="151">
+        <v>0.0769812622306773+0.30267610120186i</v>
+      </c>
+      <c r="H32" s="152" t="e">
         <f t="shared" si="4"/>
-        <v>3.9538202352536661E-2</v>
-      </c>
-      <c r="I32" s="151">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="152" t="e">
         <f t="shared" si="4"/>
-        <v>1.6239517201602487E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="159"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="16">
-        <v>70</v>
-      </c>
-      <c r="B33" s="14" t="e">
-        <f>VLOOKUP($A33,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C33" s="14" t="e">
-        <f>VLOOKUP($A33,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="21" t="e">
-        <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B33)),IMEXP(IMPRODUCT("i",RADIANS($C33)))),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="14">
-        <f>VLOOKUP($A33,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>26.351391781312614</v>
-      </c>
-      <c r="F33" s="14">
-        <f>VLOOKUP($A33,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>87.433896550046825</v>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E33)),IMEXP(IMPRODUCT("i",RADIANS($F33))))</f>
-        <v>0.0221776820938759+0.494850610113642i</v>
-      </c>
-      <c r="H33" s="151" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="151" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="26">
-        <v>75</v>
-      </c>
-      <c r="B34" s="15" t="e">
-        <f>VLOOKUP($A34,'Exp. Data Collection'!$A:$H,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C34" s="15" t="e">
-        <f>VLOOKUP($A34,'Exp. Data Collection'!$A:$H,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="19" t="e">
-        <f>IFERROR(IMPRODUCT(_xlfn.IMTAN(RADIANS($B34)),IMEXP(IMPRODUCT("i",RADIANS($C34)))),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="15">
-        <f>VLOOKUP($A34,'Model Fitting'!$N$40:$AH$130,20,FALSE)</f>
-        <v>17.344223505173044</v>
-      </c>
-      <c r="F34" s="15">
-        <f>VLOOKUP($A34,'Model Fitting'!$N$40:$AH$130,21,FALSE)</f>
-        <v>75.730205058062424</v>
-      </c>
-      <c r="G34" s="27" t="str">
-        <f>IMPRODUCT(_xlfn.IMTAN(RADIANS($E34)),IMEXP(IMPRODUCT("i",RADIANS($F34))))</f>
-        <v>0.0769812622306773+0.30267610120186i</v>
-      </c>
-      <c r="H34" s="152" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="152" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
+    <row r="34" spans="1:23">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="V34" s="100"/>
       <c r="W34" s="100"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="J35"/>
-      <c r="K35"/>
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="H35"/>
+      <c r="I35"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
     </row>
@@ -13405,8 +15013,6 @@
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="100"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37"/>
@@ -13414,10 +15020,6 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38"/>
@@ -13438,49 +15040,35 @@
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41"/>
     </row>
     <row r="42" spans="1:23">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13493,7 +15081,7 @@
   <dimension ref="A1:AI136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13516,7 +15104,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="227" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="228"/>
       <c r="C1" s="228"/>
@@ -13524,10 +15112,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="A2" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -13538,7 +15126,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="230" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -13561,7 +15149,7 @@
     </row>
     <row r="5" spans="1:15" s="90" customFormat="1">
       <c r="A5" s="230" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="97" t="s">
         <v>4</v>
@@ -13586,19 +15174,19 @@
     <row r="7" spans="1:15" s="90" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="239"/>
       <c r="B7" s="99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="139">
         <f>d1_Thickness</f>
         <v>14857</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>6</v>
@@ -13620,7 +15208,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
@@ -13628,16 +15216,16 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8">
         <v>6530</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1">
@@ -13650,7 +15238,7 @@
     </row>
     <row r="13" spans="1:15" s="29" customFormat="1">
       <c r="A13" s="234" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="235"/>
     </row>
@@ -13660,10 +15248,10 @@
     </row>
     <row r="15" spans="1:15" s="29" customFormat="1">
       <c r="A15" s="45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="29" customFormat="1" ht="15.75" thickBot="1">
@@ -13680,7 +15268,7 @@
     </row>
     <row r="18" spans="1:12" s="140" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="234" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="235"/>
     </row>
@@ -13690,10 +15278,10 @@
     </row>
     <row r="20" spans="1:12" s="140" customFormat="1">
       <c r="A20" s="178" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="179" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="140" customFormat="1" ht="15.75" thickBot="1">
@@ -13707,7 +15295,7 @@
     <row r="22" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="1:12" s="90" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="240" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="241"/>
     </row>
@@ -13717,10 +15305,10 @@
     </row>
     <row r="25" spans="1:12" s="90" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="90" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
@@ -13737,7 +15325,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="214" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="215"/>
       <c r="C28" s="90"/>
@@ -13773,7 +15361,7 @@
     </row>
     <row r="31" spans="1:12" s="90" customFormat="1" ht="15.75" thickBot="1">
       <c r="A31" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="181">
         <v>14857</v>
@@ -13790,7 +15378,7 @@
     </row>
     <row r="33" spans="1:35" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="244" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" s="245"/>
       <c r="C33" s="246"/>
@@ -13798,13 +15386,13 @@
     </row>
     <row r="34" spans="1:35" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -13847,7 +15435,7 @@
     </row>
     <row r="39" spans="1:35" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A39" s="244" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="245"/>
       <c r="C39" s="245"/>
@@ -13855,7 +15443,7 @@
       <c r="E39" s="245"/>
       <c r="F39" s="246"/>
       <c r="G39" s="244" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="245"/>
       <c r="I39" s="245"/>
@@ -13887,34 +15475,34 @@
     </row>
     <row r="40" spans="1:35" s="75" customFormat="1" ht="15.75" thickBot="1">
       <c r="A40" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="238" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="238" t="s">
+      <c r="D40" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="223" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="238" t="s">
-        <v>59</v>
-      </c>
       <c r="E40" s="247" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F40" s="225" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G40" s="251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40" s="252"/>
       <c r="I40" s="253" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J40" s="251"/>
       <c r="K40" s="252"/>
       <c r="L40" s="253" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M40" s="252"/>
       <c r="N40" s="73" t="s">
@@ -13924,15 +15512,15 @@
         <v>27</v>
       </c>
       <c r="P40" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q40" s="248" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R40" s="249"/>
       <c r="S40" s="250"/>
       <c r="T40" s="248" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U40" s="249"/>
       <c r="V40" s="249"/>
@@ -13945,7 +15533,7 @@
       <c r="AC40" s="249"/>
       <c r="AD40" s="250"/>
       <c r="AE40" s="248" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF40" s="249"/>
       <c r="AG40" s="249"/>
@@ -13971,7 +15559,7 @@
         <v>5</v>
       </c>
       <c r="K41" s="67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L41" s="65" t="s">
         <v>6</v>
@@ -13980,13 +15568,13 @@
         <v>7</v>
       </c>
       <c r="N41" s="103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O41" s="102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P41" s="104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="36" t="s">
         <v>20</v>
@@ -14031,26 +15619,26 @@
         <v>17</v>
       </c>
       <c r="AE41" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF41" s="76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG41" s="76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH41" s="77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI41" s="119"/>
     </row>
     <row r="42" spans="1:35" s="75" customFormat="1">
       <c r="A42" s="115" t="str">
-        <f>IFERROR(VLOOKUP(N42,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N42,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B42" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N42,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N42,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C42" s="131">
@@ -14184,11 +15772,11 @@
     </row>
     <row r="43" spans="1:35" s="75" customFormat="1">
       <c r="A43" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N43,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N43,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B43" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N43,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N43,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C43" s="124">
@@ -14322,11 +15910,11 @@
     </row>
     <row r="44" spans="1:35" s="75" customFormat="1">
       <c r="A44" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N44,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N44,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B44" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N44,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N44,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C44" s="124">
@@ -14460,11 +16048,11 @@
     </row>
     <row r="45" spans="1:35" s="75" customFormat="1">
       <c r="A45" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N45,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N45,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B45" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N45,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N45,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C45" s="124">
@@ -14598,11 +16186,11 @@
     </row>
     <row r="46" spans="1:35" s="75" customFormat="1">
       <c r="A46" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N46,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N46,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B46" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N46,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N46,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C46" s="124">
@@ -14736,11 +16324,11 @@
     </row>
     <row r="47" spans="1:35" s="75" customFormat="1">
       <c r="A47" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N47,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N47,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B47" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N47,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N47,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C47" s="124">
@@ -14874,11 +16462,11 @@
     </row>
     <row r="48" spans="1:35" s="75" customFormat="1">
       <c r="A48" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N48,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N48,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B48" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N48,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N48,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C48" s="124">
@@ -15012,11 +16600,11 @@
     </row>
     <row r="49" spans="1:35" s="75" customFormat="1">
       <c r="A49" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N49,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N49,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B49" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N49,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N49,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C49" s="124">
@@ -15150,11 +16738,11 @@
     </row>
     <row r="50" spans="1:35" s="75" customFormat="1">
       <c r="A50" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N50,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N50,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B50" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N50,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N50,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C50" s="124">
@@ -15288,11 +16876,11 @@
     </row>
     <row r="51" spans="1:35" s="75" customFormat="1">
       <c r="A51" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N51,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N51,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B51" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N51,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N51,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C51" s="124">
@@ -15426,11 +17014,11 @@
     </row>
     <row r="52" spans="1:35" s="75" customFormat="1">
       <c r="A52" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N52,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N52,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B52" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N52,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N52,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C52" s="124">
@@ -15564,11 +17152,11 @@
     </row>
     <row r="53" spans="1:35" s="75" customFormat="1">
       <c r="A53" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N53,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N53,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B53" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N53,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N53,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C53" s="124">
@@ -15702,11 +17290,11 @@
     </row>
     <row r="54" spans="1:35" s="75" customFormat="1">
       <c r="A54" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N54,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N54,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B54" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N54,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N54,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C54" s="124">
@@ -15840,11 +17428,11 @@
     </row>
     <row r="55" spans="1:35" s="75" customFormat="1">
       <c r="A55" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N55,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N55,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B55" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N55,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N55,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C55" s="124">
@@ -15978,11 +17566,11 @@
     </row>
     <row r="56" spans="1:35" s="75" customFormat="1">
       <c r="A56" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N56,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N56,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B56" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N56,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N56,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C56" s="124">
@@ -16116,11 +17704,11 @@
     </row>
     <row r="57" spans="1:35" s="75" customFormat="1">
       <c r="A57" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N57,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N57,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B57" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N57,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N57,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C57" s="124">
@@ -16254,11 +17842,11 @@
     </row>
     <row r="58" spans="1:35" s="75" customFormat="1">
       <c r="A58" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N58,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N58,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B58" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N58,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N58,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C58" s="124">
@@ -16392,11 +17980,11 @@
     </row>
     <row r="59" spans="1:35" s="75" customFormat="1">
       <c r="A59" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N59,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N59,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B59" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N59,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N59,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C59" s="124">
@@ -16530,11 +18118,11 @@
     </row>
     <row r="60" spans="1:35" s="75" customFormat="1">
       <c r="A60" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N60,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N60,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B60" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N60,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N60,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C60" s="124">
@@ -16668,11 +18256,11 @@
     </row>
     <row r="61" spans="1:35" s="75" customFormat="1">
       <c r="A61" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N61,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N61,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B61" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N61,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N61,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C61" s="124">
@@ -16806,11 +18394,11 @@
     </row>
     <row r="62" spans="1:35" s="75" customFormat="1">
       <c r="A62" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N62,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N62,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B62" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N62,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N62,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C62" s="124">
@@ -16944,11 +18532,11 @@
     </row>
     <row r="63" spans="1:35" s="75" customFormat="1">
       <c r="A63" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N63,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N63,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B63" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N63,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N63,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C63" s="124">
@@ -17082,11 +18670,11 @@
     </row>
     <row r="64" spans="1:35" s="75" customFormat="1">
       <c r="A64" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N64,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N64,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B64" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N64,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N64,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C64" s="124">
@@ -17220,11 +18808,11 @@
     </row>
     <row r="65" spans="1:35" s="75" customFormat="1">
       <c r="A65" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N65,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N65,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B65" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N65,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N65,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C65" s="124">
@@ -17358,11 +18946,11 @@
     </row>
     <row r="66" spans="1:35" s="75" customFormat="1">
       <c r="A66" s="79">
-        <f>IFERROR(VLOOKUP(N66,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N66,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>46.579818151446474</v>
       </c>
       <c r="B66" s="123">
-        <f>IFERROR(VLOOKUP(N66,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N66,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>170.75402436574791</v>
       </c>
       <c r="C66" s="124">
@@ -17496,11 +19084,11 @@
     </row>
     <row r="67" spans="1:35" s="75" customFormat="1">
       <c r="A67" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N67,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N67,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B67" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N67,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N67,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" s="124">
@@ -17634,11 +19222,11 @@
     </row>
     <row r="68" spans="1:35" s="75" customFormat="1">
       <c r="A68" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N68,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N68,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B68" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N68,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N68,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" s="124">
@@ -17772,11 +19360,11 @@
     </row>
     <row r="69" spans="1:35" s="75" customFormat="1">
       <c r="A69" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N69,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N69,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B69" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N69,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N69,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" s="124">
@@ -17910,11 +19498,11 @@
     </row>
     <row r="70" spans="1:35" s="75" customFormat="1">
       <c r="A70" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N70,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N70,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B70" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N70,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N70,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="124">
@@ -18048,11 +19636,11 @@
     </row>
     <row r="71" spans="1:35" s="75" customFormat="1">
       <c r="A71" s="79">
-        <f>IFERROR(VLOOKUP(N71,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N71,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>43.027953143578067</v>
       </c>
       <c r="B71" s="123">
-        <f>IFERROR(VLOOKUP(N71,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N71,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>166.66451444628117</v>
       </c>
       <c r="C71" s="124">
@@ -18186,11 +19774,11 @@
     </row>
     <row r="72" spans="1:35" s="75" customFormat="1">
       <c r="A72" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N72,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N72,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B72" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N72,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N72,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="124">
@@ -18324,11 +19912,11 @@
     </row>
     <row r="73" spans="1:35" s="75" customFormat="1">
       <c r="A73" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N73,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N73,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B73" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N73,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N73,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="124">
@@ -18462,11 +20050,11 @@
     </row>
     <row r="74" spans="1:35" s="75" customFormat="1">
       <c r="A74" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N74,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N74,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B74" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N74,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N74,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="124">
@@ -18600,11 +20188,11 @@
     </row>
     <row r="75" spans="1:35" s="75" customFormat="1">
       <c r="A75" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N75,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N75,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B75" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N75,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N75,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="124">
@@ -18738,11 +20326,11 @@
     </row>
     <row r="76" spans="1:35" s="75" customFormat="1">
       <c r="A76" s="79">
-        <f>IFERROR(VLOOKUP(N76,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N76,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>38.861338154560229</v>
       </c>
       <c r="B76" s="123">
-        <f>IFERROR(VLOOKUP(N76,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N76,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>164.74685228171722</v>
       </c>
       <c r="C76" s="124">
@@ -18876,11 +20464,11 @@
     </row>
     <row r="77" spans="1:35" s="75" customFormat="1">
       <c r="A77" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N77,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N77,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B77" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N77,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N77,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="124">
@@ -19014,11 +20602,11 @@
     </row>
     <row r="78" spans="1:35" s="75" customFormat="1">
       <c r="A78" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N78,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N78,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B78" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N78,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N78,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="124">
@@ -19152,11 +20740,11 @@
     </row>
     <row r="79" spans="1:35" s="75" customFormat="1">
       <c r="A79" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N79,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N79,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B79" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N79,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N79,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="124">
@@ -19290,11 +20878,11 @@
     </row>
     <row r="80" spans="1:35" s="75" customFormat="1">
       <c r="A80" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N80,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N80,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B80" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N80,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N80,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="124">
@@ -19428,11 +21016,11 @@
     </row>
     <row r="81" spans="1:35" s="75" customFormat="1">
       <c r="A81" s="79">
-        <f>IFERROR(VLOOKUP(N81,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N81,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>35.694268016732146</v>
       </c>
       <c r="B81" s="123">
-        <f>IFERROR(VLOOKUP(N81,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N81,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>169.10930014377632</v>
       </c>
       <c r="C81" s="124">
@@ -19566,11 +21154,11 @@
     </row>
     <row r="82" spans="1:35" s="75" customFormat="1">
       <c r="A82" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N82,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N82,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B82" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N82,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N82,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="124">
@@ -19704,11 +21292,11 @@
     </row>
     <row r="83" spans="1:35" s="75" customFormat="1">
       <c r="A83" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N83,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N83,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B83" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N83,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N83,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="124">
@@ -19842,11 +21430,11 @@
     </row>
     <row r="84" spans="1:35" s="75" customFormat="1">
       <c r="A84" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N84,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N84,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B84" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N84,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N84,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="124">
@@ -19980,11 +21568,11 @@
     </row>
     <row r="85" spans="1:35" s="75" customFormat="1">
       <c r="A85" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N85,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N85,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B85" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N85,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N85,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" s="124">
@@ -20118,11 +21706,11 @@
     </row>
     <row r="86" spans="1:35" s="75" customFormat="1">
       <c r="A86" s="79">
-        <f>IFERROR(VLOOKUP(N86,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N86,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>33.210910760899075</v>
       </c>
       <c r="B86" s="123">
-        <f>IFERROR(VLOOKUP(N86,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N86,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>172.62123438740906</v>
       </c>
       <c r="C86" s="124">
@@ -20256,11 +21844,11 @@
     </row>
     <row r="87" spans="1:35" s="75" customFormat="1">
       <c r="A87" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N87,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N87,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B87" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N87,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N87,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" s="124">
@@ -20394,11 +21982,11 @@
     </row>
     <row r="88" spans="1:35" s="75" customFormat="1">
       <c r="A88" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N88,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N88,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B88" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N88,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N88,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" s="124">
@@ -20532,11 +22120,11 @@
     </row>
     <row r="89" spans="1:35" s="75" customFormat="1">
       <c r="A89" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N89,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N89,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B89" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N89,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N89,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" s="124">
@@ -20670,11 +22258,11 @@
     </row>
     <row r="90" spans="1:35" s="75" customFormat="1">
       <c r="A90" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N90,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N90,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B90" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N90,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N90,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="124">
@@ -20808,11 +22396,11 @@
     </row>
     <row r="91" spans="1:35" s="75" customFormat="1">
       <c r="A91" s="79">
-        <f>IFERROR(VLOOKUP(N91,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N91,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>32.201490261252303</v>
       </c>
       <c r="B91" s="123">
-        <f>IFERROR(VLOOKUP(N91,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N91,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>150.21361539703906</v>
       </c>
       <c r="C91" s="124">
@@ -20946,11 +22534,11 @@
     </row>
     <row r="92" spans="1:35" s="75" customFormat="1">
       <c r="A92" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N92,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N92,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B92" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N92,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N92,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" s="124">
@@ -21084,11 +22672,11 @@
     </row>
     <row r="93" spans="1:35" s="75" customFormat="1">
       <c r="A93" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N93,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N93,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B93" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N93,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N93,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" s="124">
@@ -21222,11 +22810,11 @@
     </row>
     <row r="94" spans="1:35" s="75" customFormat="1">
       <c r="A94" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N94,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N94,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B94" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N94,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N94,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C94" s="124">
@@ -21360,11 +22948,11 @@
     </row>
     <row r="95" spans="1:35" s="75" customFormat="1">
       <c r="A95" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N95,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N95,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B95" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N95,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N95,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C95" s="124">
@@ -21498,11 +23086,11 @@
     </row>
     <row r="96" spans="1:35" s="75" customFormat="1">
       <c r="A96" s="79">
-        <f>IFERROR(VLOOKUP(N96,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N96,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>41.437599422423631</v>
       </c>
       <c r="B96" s="123">
-        <f>IFERROR(VLOOKUP(N96,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N96,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>129.28229305675629</v>
       </c>
       <c r="C96" s="124">
@@ -21636,11 +23224,11 @@
     </row>
     <row r="97" spans="1:35" s="75" customFormat="1">
       <c r="A97" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N97,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N97,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B97" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N97,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N97,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C97" s="124">
@@ -21774,11 +23362,11 @@
     </row>
     <row r="98" spans="1:35" s="75" customFormat="1">
       <c r="A98" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N98,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N98,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B98" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N98,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N98,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C98" s="124">
@@ -21912,11 +23500,11 @@
     </row>
     <row r="99" spans="1:35" s="75" customFormat="1">
       <c r="A99" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N99,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N99,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B99" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N99,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N99,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C99" s="124">
@@ -22050,11 +23638,11 @@
     </row>
     <row r="100" spans="1:35" s="75" customFormat="1">
       <c r="A100" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N100,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N100,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B100" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N100,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N100,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C100" s="124">
@@ -22188,11 +23776,11 @@
     </row>
     <row r="101" spans="1:35" s="75" customFormat="1">
       <c r="A101" s="79">
-        <f>IFERROR(VLOOKUP(N101,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N101,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>64.396405593318363</v>
       </c>
       <c r="B101" s="123">
-        <f>IFERROR(VLOOKUP(N101,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N101,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>147.70171196832246</v>
       </c>
       <c r="C101" s="124">
@@ -22326,11 +23914,11 @@
     </row>
     <row r="102" spans="1:35" s="75" customFormat="1">
       <c r="A102" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N102,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N102,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B102" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N102,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N102,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C102" s="124">
@@ -22464,11 +24052,11 @@
     </row>
     <row r="103" spans="1:35" s="75" customFormat="1">
       <c r="A103" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N103,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N103,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B103" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N103,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N103,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C103" s="124">
@@ -22602,11 +24190,11 @@
     </row>
     <row r="104" spans="1:35" s="75" customFormat="1">
       <c r="A104" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N104,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N104,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B104" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N104,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N104,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C104" s="124">
@@ -22740,11 +24328,11 @@
     </row>
     <row r="105" spans="1:35" s="75" customFormat="1">
       <c r="A105" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N105,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N105,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B105" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N105,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N105,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C105" s="124">
@@ -22878,11 +24466,11 @@
     </row>
     <row r="106" spans="1:35" s="75" customFormat="1">
       <c r="A106" s="79">
-        <f>IFERROR(VLOOKUP(N106,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N106,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v>39.692446074646021</v>
       </c>
       <c r="B106" s="123">
-        <f>IFERROR(VLOOKUP(N106,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N106,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v>97.210059130547009</v>
       </c>
       <c r="C106" s="124">
@@ -23016,11 +24604,11 @@
     </row>
     <row r="107" spans="1:35" s="75" customFormat="1">
       <c r="A107" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N107,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N107,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B107" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N107,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N107,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C107" s="124">
@@ -23154,11 +24742,11 @@
     </row>
     <row r="108" spans="1:35" s="75" customFormat="1">
       <c r="A108" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N108,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N108,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B108" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N108,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N108,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C108" s="124">
@@ -23292,11 +24880,11 @@
     </row>
     <row r="109" spans="1:35" s="75" customFormat="1">
       <c r="A109" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N109,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N109,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B109" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N109,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N109,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C109" s="124">
@@ -23430,11 +25018,11 @@
     </row>
     <row r="110" spans="1:35" s="75" customFormat="1">
       <c r="A110" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N110,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N110,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B110" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N110,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N110,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C110" s="124">
@@ -23568,11 +25156,11 @@
     </row>
     <row r="111" spans="1:35" s="75" customFormat="1">
       <c r="A111" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N111,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N111,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B111" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N111,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N111,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C111" s="124">
@@ -23706,11 +25294,11 @@
     </row>
     <row r="112" spans="1:35" s="75" customFormat="1">
       <c r="A112" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N112,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N112,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B112" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N112,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N112,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C112" s="124">
@@ -23844,11 +25432,11 @@
     </row>
     <row r="113" spans="1:35" s="75" customFormat="1">
       <c r="A113" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N113,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N113,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B113" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N113,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N113,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C113" s="124">
@@ -23982,11 +25570,11 @@
     </row>
     <row r="114" spans="1:35" s="75" customFormat="1">
       <c r="A114" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N114,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N114,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B114" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N114,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N114,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C114" s="124">
@@ -24120,11 +25708,11 @@
     </row>
     <row r="115" spans="1:35" s="75" customFormat="1">
       <c r="A115" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N115,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N115,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B115" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N115,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N115,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C115" s="124">
@@ -24258,11 +25846,11 @@
     </row>
     <row r="116" spans="1:35" s="75" customFormat="1">
       <c r="A116" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N116,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N116,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B116" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N116,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N116,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C116" s="124">
@@ -24396,11 +25984,11 @@
     </row>
     <row r="117" spans="1:35" s="75" customFormat="1">
       <c r="A117" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N117,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N117,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B117" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N117,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N117,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C117" s="124">
@@ -24534,11 +26122,11 @@
     </row>
     <row r="118" spans="1:35" s="75" customFormat="1">
       <c r="A118" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N118,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N118,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B118" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N118,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N118,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C118" s="124">
@@ -24672,11 +26260,11 @@
     </row>
     <row r="119" spans="1:35" s="75" customFormat="1">
       <c r="A119" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N119,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N119,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B119" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N119,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N119,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C119" s="124">
@@ -24810,11 +26398,11 @@
     </row>
     <row r="120" spans="1:35" s="75" customFormat="1">
       <c r="A120" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N120,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N120,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B120" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N120,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N120,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C120" s="124">
@@ -24948,11 +26536,11 @@
     </row>
     <row r="121" spans="1:35" s="75" customFormat="1">
       <c r="A121" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N121,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N121,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B121" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N121,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N121,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C121" s="124">
@@ -25086,11 +26674,11 @@
     </row>
     <row r="122" spans="1:35" s="71" customFormat="1">
       <c r="A122" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N122,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N122,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B122" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N122,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N122,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C122" s="124">
@@ -25224,11 +26812,11 @@
     </row>
     <row r="123" spans="1:35" s="71" customFormat="1">
       <c r="A123" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N123,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N123,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B123" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N123,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N123,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C123" s="124">
@@ -25362,11 +26950,11 @@
     </row>
     <row r="124" spans="1:35" s="71" customFormat="1">
       <c r="A124" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N124,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N124,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B124" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N124,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N124,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C124" s="124">
@@ -25500,11 +27088,11 @@
     </row>
     <row r="125" spans="1:35" s="71" customFormat="1">
       <c r="A125" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N125,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N125,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B125" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N125,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N125,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C125" s="124">
@@ -25638,11 +27226,11 @@
     </row>
     <row r="126" spans="1:35" s="71" customFormat="1">
       <c r="A126" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N126,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N126,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B126" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N126,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N126,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C126" s="124">
@@ -25776,11 +27364,11 @@
     </row>
     <row r="127" spans="1:35" s="71" customFormat="1">
       <c r="A127" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N127,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N127,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B127" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N127,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N127,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C127" s="124">
@@ -25914,11 +27502,11 @@
     </row>
     <row r="128" spans="1:35" s="71" customFormat="1">
       <c r="A128" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N128,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N128,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B128" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N128,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N128,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C128" s="124">
@@ -26052,11 +27640,11 @@
     </row>
     <row r="129" spans="1:35" s="71" customFormat="1">
       <c r="A129" s="79" t="str">
-        <f>IFERROR(VLOOKUP(N129,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N129,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B129" s="123" t="str">
-        <f>IFERROR(VLOOKUP(N129,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N129,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C129" s="124">
@@ -26190,11 +27778,11 @@
     </row>
     <row r="130" spans="1:35" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A130" s="81" t="str">
-        <f>IFERROR(VLOOKUP(N130,'Exp. Data Processing'!$A$23:$C$34,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N130,'Exp. Data Processing'!$A$21:$C$32,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="B130" s="125" t="str">
-        <f>IFERROR(VLOOKUP(N130,'Exp. Data Processing'!$A$23:$C$34,3,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(N130,'Exp. Data Processing'!$A$21:$C$32,3,FALSE),"")</f>
         <v/>
       </c>
       <c r="C130" s="126">
@@ -26361,7 +27949,7 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" thickBot="1">
       <c r="A132" s="220" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B132" s="221"/>
       <c r="C132" s="221"/>
